--- a/PlaceID.xlsx
+++ b/PlaceID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAHAA\Desktop\botce1003-RealMain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAHAA\Desktop\AAAA10-12\botce1003-Updated-Main-9-10-with-direction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="placeid" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ChIJ-c0P3AoP2jERmgAasZYsPdM</t>
   </si>
@@ -147,6 +148,15 @@
   </si>
   <si>
     <t>to Canteen 14</t>
+  </si>
+  <si>
+    <t>to NIE Food Court</t>
+  </si>
+  <si>
+    <t>Block 4, Nanyang Crescent, SAM National Institute of Education, Singapore 637616</t>
+  </si>
+  <si>
+    <t>ChIJ2739TgoP2jERlpS4Fef772Y</t>
   </si>
 </sst>
 </file>
@@ -161,36 +171,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5E3DF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,16 +202,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,18 +595,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.27734375" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.71875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.27734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="43.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -629,208 +628,225 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="61.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>1.347018</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>103.68073699999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>1.342894</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>103.68241</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1.346889</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>103.686004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1.348538</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>103.685489</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1.344257</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>103.685434</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>1.3522479999999999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>103.685303</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>1.3549040000000001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>103.68648</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>1.3517129999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>103.681083</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1.352684</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>103.68210500000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1.3502890000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>103.68091699999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1.34321</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>103.68258</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>1.3543909999999999</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>103.688171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.3486750000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>103.677735</v>
       </c>
     </row>
   </sheetData>

--- a/PlaceID.xlsx
+++ b/PlaceID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAHAA\Desktop\AAAA10-12\botce1003-Updated-Main-9-10-with-direction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAHAA\Dropbox\Apps\Heroku\testingalsabot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -135,9 +135,6 @@
     <t>to The Hive</t>
   </si>
   <si>
-    <t>to North Hill Food Court</t>
-  </si>
-  <si>
     <t>to Canteen 16</t>
   </si>
   <si>
@@ -157,13 +154,16 @@
   </si>
   <si>
     <t>ChIJ2739TgoP2jERlpS4Fef772Y</t>
+  </si>
+  <si>
+    <t>to North Hill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -175,6 +175,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -207,10 +213,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -597,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -732,7 +738,7 @@
     </row>
     <row r="8" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -749,7 +755,7 @@
     </row>
     <row r="9" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -766,7 +772,7 @@
     </row>
     <row r="10" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -783,7 +789,7 @@
     </row>
     <row r="11" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -817,7 +823,7 @@
     </row>
     <row r="13" spans="1:5" ht="49.2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
@@ -834,13 +840,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="5">
         <v>1.3486750000000001</v>
